--- a/from_qgis.xlsx
+++ b/from_qgis.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheena\anaconda3\envs\ox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY FILES\UPD Acad Files\2nd Sem, AY 2022-2023\Bus Network Design\qgis files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5CB42-D194-4199-ADA3-64F07E66456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA92C84-44EB-4BF7-A5EC-2B7B1B7E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Coordinates" sheetId="2" r:id="rId2"/>
+    <sheet name="Additional Nodes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="461">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -1209,6 +1210,201 @@
   </si>
   <si>
     <t>5th Ave 2</t>
+  </si>
+  <si>
+    <t>Recto 1</t>
+  </si>
+  <si>
+    <t>Recto 2</t>
+  </si>
+  <si>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <t>Heritage</t>
+  </si>
+  <si>
+    <t>14.536998093374049, 120.9924570648909</t>
+  </si>
+  <si>
+    <t>Baclaran Market</t>
+  </si>
+  <si>
+    <t>14.533005505030609, 120.9927308250385</t>
+  </si>
+  <si>
+    <t>Bayview</t>
+  </si>
+  <si>
+    <t>14.579035647463236, 120.97803135023806</t>
+  </si>
+  <si>
+    <t>City of Dreams</t>
+  </si>
+  <si>
+    <t>14.523872732491139, 120.99061951083875</t>
+  </si>
+  <si>
+    <t>Roosevelt Ave</t>
+  </si>
+  <si>
+    <t>14.657982825156735, 121.01969861288812</t>
+  </si>
+  <si>
+    <t>Road 20</t>
+  </si>
+  <si>
+    <t>14.671273811247595, 121.03217831955243</t>
+  </si>
+  <si>
+    <t>Quirino Mindanao Ave</t>
+  </si>
+  <si>
+    <t>14.690499257703188, 121.02813257092167</t>
+  </si>
+  <si>
+    <t>Kingspoint</t>
+  </si>
+  <si>
+    <t>14.692769601459757, 121.02981464639207</t>
+  </si>
+  <si>
+    <t>Bernardino Ave</t>
+  </si>
+  <si>
+    <t>14.696187685621602, 121.03212261042485</t>
+  </si>
+  <si>
+    <t>VMMC</t>
+  </si>
+  <si>
+    <t>14.659467490994714, 121.03620060237702</t>
+  </si>
+  <si>
+    <t>Belfa St</t>
+  </si>
+  <si>
+    <t>14.732783321994267, 121.05563408893393</t>
+  </si>
+  <si>
+    <t>Yakal</t>
+  </si>
+  <si>
+    <t>14.71486779802974, 121.0575950782413</t>
+  </si>
+  <si>
+    <t>Puregold North Comm</t>
+  </si>
+  <si>
+    <t>14.704742250000209, 121.08052356792064</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>14.654327028901207, 121.04954215381416</t>
+  </si>
+  <si>
+    <t>Sto. Domingo</t>
+  </si>
+  <si>
+    <t>14.626101156176961, 121.01057906600056</t>
+  </si>
+  <si>
+    <t>Vicente Cruz</t>
+  </si>
+  <si>
+    <t>14.61173847794976, 120.99491038842679</t>
+  </si>
+  <si>
+    <t>Manila City Hall</t>
+  </si>
+  <si>
+    <t>14.590618921110261, 120.9804200537169</t>
+  </si>
+  <si>
+    <t>Arellano</t>
+  </si>
+  <si>
+    <t>14.600893621197788, 120.99697330364152</t>
+  </si>
+  <si>
+    <t>Nagtahan</t>
+  </si>
+  <si>
+    <t>14.60134291847372, 121.00011338322857</t>
+  </si>
+  <si>
+    <t>Old Sta. Mesa</t>
+  </si>
+  <si>
+    <t>14.60249840362917, 121.01198800112263</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>14.612224302534282, 121.03145456901798</t>
+  </si>
+  <si>
+    <t>Robinsons Magnolia</t>
+  </si>
+  <si>
+    <t>14.615401804408375, 121.03707864746254</t>
+  </si>
+  <si>
+    <t>Robinsons Galleria</t>
+  </si>
+  <si>
+    <t>14.592286689297485, 121.05938012688362</t>
+  </si>
+  <si>
+    <t>Frontera Drive</t>
+  </si>
+  <si>
+    <t>14.589679338910353, 121.07729608098899</t>
+  </si>
+  <si>
+    <t>11th Ave</t>
+  </si>
+  <si>
+    <t>14.560472876863182, 121.05689035696875</t>
+  </si>
+  <si>
+    <t>Paseo de Roxas</t>
+  </si>
+  <si>
+    <t>14.559872097133809, 121.03057206123688</t>
+  </si>
+  <si>
+    <t>Malugay</t>
+  </si>
+  <si>
+    <t>14.561983401583833, 121.02014405720924</t>
+  </si>
+  <si>
+    <t>Pangilinan Virgina St</t>
+  </si>
+  <si>
+    <t>14.670914630311772, 121.03919724171247</t>
+  </si>
+  <si>
+    <t>Mira Nila Homes</t>
+  </si>
+  <si>
+    <t>14.673155525077044, 121.05896243260233</t>
+  </si>
+  <si>
+    <t>Calle Industria</t>
+  </si>
+  <si>
+    <t>14.605400688042714, 121.07897682628223</t>
+  </si>
+  <si>
+    <t>Tiendesitas</t>
+  </si>
+  <si>
+    <t>14.585556715852753, 121.07862019578211</t>
   </si>
 </sst>
 </file>
@@ -1496,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4527,8 +4723,8 @@
   </sheetPr>
   <dimension ref="A1:F756"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5112,10 +5308,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -5129,10 +5325,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5350,7 +5546,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>396</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>241</v>
@@ -6710,7 +6906,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>24</v>
+        <v>397</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>321</v>
@@ -9616,6 +9812,374 @@
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B8DA1-685F-45B3-8A6C-549E471D924C}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>451</v>
+      </c>
+      <c r="C28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/from_qgis.xlsx
+++ b/from_qgis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY FILES\UPD Acad Files\2nd Sem, AY 2022-2023\Bus Network Design\qgis files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheena\anaconda3\envs\ox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA92C84-44EB-4BF7-A5EC-2B7B1B7E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819D8C2-E4DB-43D3-929C-418B98CB401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Nodes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="468">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Bagong Barrio</t>
   </si>
   <si>
-    <t>VGC</t>
-  </si>
-  <si>
     <t>North EDSA</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Senatorial Drive</t>
   </si>
   <si>
-    <t>Mindanao Ave</t>
-  </si>
-  <si>
-    <t>Tandang Sora</t>
-  </si>
-  <si>
     <t>Sauyo</t>
   </si>
   <si>
@@ -243,18 +234,12 @@
     <t>Fisher Mall</t>
   </si>
   <si>
-    <t>Araneta</t>
-  </si>
-  <si>
     <t>Banawe</t>
   </si>
   <si>
     <t>D. Tuazon</t>
   </si>
   <si>
-    <t>Blumentritt</t>
-  </si>
-  <si>
     <t>Lacson</t>
   </si>
   <si>
@@ -624,9 +609,6 @@
     <t>14.510395,120.992016</t>
   </si>
   <si>
-    <t>14.711829,120.993211</t>
-  </si>
-  <si>
     <t>14.654670,121.029643</t>
   </si>
   <si>
@@ -1405,13 +1387,52 @@
   </si>
   <si>
     <t>14.585556715852753, 121.07862019578211</t>
+  </si>
+  <si>
+    <t>Mindanao Ave 1</t>
+  </si>
+  <si>
+    <t>Mindanao Ave 2</t>
+  </si>
+  <si>
+    <t>Araneta 1</t>
+  </si>
+  <si>
+    <t>Araneta 2</t>
+  </si>
+  <si>
+    <t>Blumentritt 1</t>
+  </si>
+  <si>
+    <t>Blumentritt 2</t>
+  </si>
+  <si>
+    <t>Arnaiz Ave</t>
+  </si>
+  <si>
+    <t>14.550994658987237, 121.01137094267843</t>
+  </si>
+  <si>
+    <t>Tandang Sora 1</t>
+  </si>
+  <si>
+    <t>Tandang Sora 2</t>
+  </si>
+  <si>
+    <t>Tandang Sora 3</t>
+  </si>
+  <si>
+    <t>Quezon City Hall</t>
+  </si>
+  <si>
+    <t>14.648498774179803, 121.04988932338844</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1427,6 +1448,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1458,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,6 +1500,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,13 +1719,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1873,7 +1905,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
@@ -1948,7 +1980,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -2186,14 +2218,14 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2202,7 +2234,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -2212,13 +2244,12 @@
         <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -2233,11 +2264,11 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>455</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -2248,11 +2279,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -2263,11 +2294,11 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -2278,11 +2309,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
         <v>4</v>
@@ -2293,11 +2324,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
         <v>4</v>
@@ -2308,11 +2339,11 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
@@ -2323,11 +2354,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -2338,11 +2369,11 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -2353,11 +2384,11 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
@@ -2368,29 +2399,30 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
         <v>4</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2399,27 +2431,26 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -2430,11 +2461,11 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -2445,11 +2476,11 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -2460,11 +2491,11 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
@@ -2475,11 +2506,11 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -2490,11 +2521,11 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -2505,11 +2536,11 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -2520,11 +2551,11 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
@@ -2535,11 +2566,11 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -2550,11 +2581,11 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
@@ -2565,11 +2596,11 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -2580,11 +2611,11 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
@@ -2595,11 +2626,11 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -2610,11 +2641,11 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -2625,11 +2656,11 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="2">
         <v>5</v>
@@ -2640,11 +2671,11 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
@@ -2655,11 +2686,11 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="2">
         <v>5</v>
@@ -2670,11 +2701,11 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
@@ -2685,11 +2716,11 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -2700,11 +2731,11 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
@@ -2715,11 +2746,11 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2">
         <v>5</v>
@@ -2730,42 +2761,42 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
       </c>
       <c r="E69" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D70" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" s="2">
         <v>6</v>
@@ -2776,11 +2807,11 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" s="2">
         <v>6</v>
@@ -2791,11 +2822,11 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="D73" s="2">
         <v>6</v>
@@ -2806,11 +2837,11 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2">
         <v>6</v>
@@ -2821,11 +2852,11 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D75" s="2">
         <v>6</v>
@@ -2836,11 +2867,11 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -2851,11 +2882,11 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2">
         <v>6</v>
@@ -2866,11 +2897,11 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D78" s="2">
         <v>6</v>
@@ -2881,11 +2912,11 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2">
         <v>6</v>
@@ -2896,11 +2927,11 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D80" s="2">
         <v>6</v>
@@ -2911,11 +2942,11 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D81" s="2">
         <v>6</v>
@@ -2926,11 +2957,11 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D82" s="2">
         <v>6</v>
@@ -2941,11 +2972,11 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D83" s="2">
         <v>6</v>
@@ -2956,11 +2987,11 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2">
         <v>6</v>
@@ -2971,73 +3002,73 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2">
         <v>6</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D86" s="2">
         <v>6</v>
       </c>
       <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D87" s="2">
         <v>6</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D88" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
@@ -3048,29 +3079,30 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2">
         <v>7</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D91" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
@@ -3079,27 +3111,26 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D92" s="2">
         <v>8</v>
       </c>
       <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D93" s="2">
         <v>8</v>
@@ -3110,11 +3141,11 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D94" s="2">
         <v>8</v>
@@ -3125,11 +3156,11 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
@@ -3140,11 +3171,11 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D96" s="2">
         <v>8</v>
@@ -3155,11 +3186,11 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D97" s="2">
         <v>8</v>
@@ -3170,11 +3201,11 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D98" s="2">
         <v>8</v>
@@ -3185,11 +3216,11 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D99" s="2">
         <v>8</v>
@@ -3200,11 +3231,11 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D100" s="2">
         <v>8</v>
@@ -3215,11 +3246,11 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D101" s="2">
         <v>8</v>
@@ -3230,11 +3261,11 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D102" s="2">
         <v>8</v>
@@ -3245,11 +3276,11 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D103" s="2">
         <v>8</v>
@@ -3260,42 +3291,42 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D104" s="2">
         <v>8</v>
       </c>
       <c r="E104" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D105" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D106" s="2">
         <v>9</v>
@@ -3306,73 +3337,73 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D107" s="2">
         <v>9</v>
       </c>
       <c r="E107" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D108" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D109" s="2">
         <v>10</v>
       </c>
       <c r="E109" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D110" s="2">
         <v>10</v>
       </c>
       <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="D111" s="2">
         <v>10</v>
@@ -3383,11 +3414,11 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D112" s="2">
         <v>10</v>
@@ -3398,11 +3429,11 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D113" s="2">
         <v>10</v>
@@ -3413,11 +3444,11 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D114" s="2">
         <v>10</v>
@@ -3428,11 +3459,11 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D115" s="2">
         <v>10</v>
@@ -3443,11 +3474,11 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D116" s="2">
         <v>10</v>
@@ -3458,42 +3489,42 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D117" s="2">
         <v>10</v>
       </c>
       <c r="E117" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D118" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D119" s="2">
         <v>11</v>
@@ -3504,11 +3535,11 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D120" s="2">
         <v>11</v>
@@ -3519,11 +3550,11 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D121" s="2">
         <v>11</v>
@@ -3534,11 +3565,11 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D122" s="2">
         <v>11</v>
@@ -3549,11 +3580,11 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D123" s="2">
         <v>11</v>
@@ -3564,11 +3595,11 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D124" s="2">
         <v>11</v>
@@ -3579,11 +3610,11 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D125" s="2">
         <v>11</v>
@@ -3594,11 +3625,11 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D126" s="2">
         <v>11</v>
@@ -3609,11 +3640,11 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D127" s="2">
         <v>11</v>
@@ -3624,29 +3655,30 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D128" s="2">
         <v>11</v>
       </c>
       <c r="E128" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D129" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -3655,27 +3687,26 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D130" s="2">
         <v>12</v>
       </c>
       <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D131" s="2">
         <v>12</v>
@@ -3686,11 +3717,11 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D132" s="2">
         <v>12</v>
@@ -3701,11 +3732,11 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D133" s="2">
         <v>12</v>
@@ -3716,11 +3747,11 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D134" s="2">
         <v>12</v>
@@ -3731,11 +3762,11 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D135" s="2">
         <v>12</v>
@@ -3746,42 +3777,42 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D136" s="2">
         <v>12</v>
       </c>
       <c r="E136" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D137" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D138" s="2">
         <v>13</v>
@@ -3792,11 +3823,11 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D139" s="2">
         <v>13</v>
@@ -3807,11 +3838,11 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D140" s="2">
         <v>13</v>
@@ -3822,11 +3853,11 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D141" s="2">
         <v>13</v>
@@ -3837,11 +3868,11 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D142" s="2">
         <v>13</v>
@@ -3852,29 +3883,30 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D143" s="2">
         <v>13</v>
       </c>
       <c r="E143" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D144" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -3883,27 +3915,26 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D145" s="2">
         <v>14</v>
       </c>
       <c r="E145" s="2">
-        <v>1</v>
-      </c>
-      <c r="F145" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D146" s="2">
         <v>14</v>
@@ -3914,26 +3945,27 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D147" s="2">
         <v>14</v>
       </c>
       <c r="E147" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D148" s="2">
         <v>14</v>
@@ -3945,27 +3977,26 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D149" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D150" s="2">
         <v>15</v>
@@ -3976,11 +4007,11 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D151" s="2">
         <v>15</v>
@@ -3991,11 +4022,11 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D152" s="2">
         <v>15</v>
@@ -4006,73 +4037,73 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D153" s="2">
         <v>15</v>
       </c>
       <c r="E153" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D154" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E154" s="2">
-        <v>1</v>
-      </c>
-      <c r="F154" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D155" s="2">
         <v>16</v>
       </c>
       <c r="E155" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D156" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D157" s="2">
         <v>17</v>
@@ -4083,11 +4114,11 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="D158" s="2">
         <v>17</v>
@@ -4098,11 +4129,11 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="D159" s="2">
         <v>17</v>
@@ -4113,11 +4144,11 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D160" s="2">
         <v>17</v>
@@ -4128,14 +4159,14 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D161" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -4143,11 +4174,11 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D162" s="2">
         <v>18</v>
@@ -4158,11 +4189,11 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D163" s="2">
         <v>18</v>
@@ -4173,11 +4204,11 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D164" s="2">
         <v>18</v>
@@ -4188,14 +4219,14 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D165" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -4203,11 +4234,11 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="D166" s="2">
         <v>19</v>
@@ -4218,11 +4249,11 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="D167" s="2">
         <v>19</v>
@@ -4233,11 +4264,11 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D168" s="2">
         <v>19</v>
@@ -4248,11 +4279,11 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D169" s="2">
         <v>19</v>
@@ -4263,11 +4294,11 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D170" s="2">
         <v>19</v>
@@ -4278,11 +4309,11 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D171" s="2">
         <v>19</v>
@@ -4293,11 +4324,11 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D172" s="2">
         <v>19</v>
@@ -4308,11 +4339,11 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D173" s="2">
         <v>19</v>
@@ -4323,11 +4354,11 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D174" s="2">
         <v>19</v>
@@ -4338,11 +4369,11 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D175" s="2">
         <v>19</v>
@@ -4353,11 +4384,11 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D176" s="2">
         <v>19</v>
@@ -4368,11 +4399,11 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D177" s="2">
         <v>19</v>
@@ -4383,11 +4414,11 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D178" s="2">
         <v>19</v>
@@ -4398,14 +4429,14 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D179" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -4413,11 +4444,11 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D180" s="2">
         <v>23</v>
@@ -4428,11 +4459,11 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D181" s="2">
         <v>23</v>
@@ -4443,11 +4474,11 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D182" s="2">
         <v>23</v>
@@ -4458,11 +4489,11 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D183" s="2">
         <v>23</v>
@@ -4473,11 +4504,11 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D184" s="2">
         <v>23</v>
@@ -4488,11 +4519,11 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D185" s="2">
         <v>23</v>
@@ -4503,11 +4534,11 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D186" s="2">
         <v>23</v>
@@ -4518,14 +4549,14 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D187" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E187" s="2">
         <v>0</v>
@@ -4533,11 +4564,11 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D188" s="2">
         <v>24</v>
@@ -4548,11 +4579,11 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D189" s="2">
         <v>24</v>
@@ -4563,11 +4594,11 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D190" s="2">
         <v>24</v>
@@ -4578,11 +4609,11 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D191" s="2">
         <v>24</v>
@@ -4593,11 +4624,11 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D192" s="2">
         <v>24</v>
@@ -4608,11 +4639,11 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D193" s="2">
         <v>24</v>
@@ -4623,11 +4654,11 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D194" s="2">
         <v>24</v>
@@ -4638,11 +4669,11 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D195" s="2">
         <v>24</v>
@@ -4653,14 +4684,14 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D196" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E196" s="2">
         <v>0</v>
@@ -4668,11 +4699,11 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D197" s="2">
         <v>25</v>
@@ -4683,31 +4714,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D198" s="2">
         <v>25</v>
       </c>
       <c r="E198" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>198</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D199" s="2">
-        <v>25</v>
-      </c>
-      <c r="E199" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4721,10 +4737,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F756"/>
+  <dimension ref="A1:F755"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4741,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4758,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -4776,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -4794,7 +4810,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4812,7 +4828,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -4824,16 +4840,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -4842,13 +4858,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -4860,16 +4876,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -4878,13 +4894,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -4896,16 +4912,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -4914,13 +4930,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -4932,16 +4948,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -4950,16 +4966,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -4968,13 +4984,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="2">
         <v>8</v>
@@ -4986,16 +5002,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -5004,16 +5020,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -5022,13 +5038,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -5040,16 +5056,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -5058,16 +5074,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -5076,13 +5092,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D20" s="2">
         <v>12</v>
@@ -5094,16 +5110,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -5112,16 +5128,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -5130,13 +5146,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2">
         <v>14</v>
@@ -5148,13 +5164,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2">
         <v>14</v>
@@ -5166,16 +5182,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -5184,16 +5200,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -5202,31 +5218,30 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -5237,13 +5252,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -5254,13 +5269,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -5271,13 +5286,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -5288,13 +5303,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -5305,13 +5320,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -5322,13 +5337,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5339,16 +5354,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -5356,13 +5371,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>394</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -5373,13 +5388,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -5390,13 +5405,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
@@ -5407,13 +5422,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -5424,13 +5439,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -5441,13 +5456,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -5458,13 +5473,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -5475,13 +5490,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -5492,13 +5507,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -5509,13 +5524,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -5526,13 +5541,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D46" s="2">
         <v>2</v>
@@ -5543,13 +5558,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>396</v>
+        <v>25</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -5560,13 +5575,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -5577,13 +5592,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -5594,13 +5609,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
@@ -5611,13 +5626,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
@@ -5628,13 +5643,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D52" s="2">
         <v>2</v>
@@ -5645,16 +5660,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -5662,16 +5677,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -5679,13 +5694,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D55" s="2">
         <v>4</v>
@@ -5696,13 +5711,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>455</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
@@ -5713,13 +5728,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>38</v>
+        <v>463</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
@@ -5730,13 +5745,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
@@ -5747,13 +5762,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
@@ -5764,13 +5779,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
@@ -5781,13 +5796,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2">
         <v>4</v>
@@ -5798,13 +5813,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
@@ -5815,13 +5830,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D63" s="2">
         <v>4</v>
@@ -5832,13 +5847,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
@@ -5849,16 +5864,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -5866,13 +5881,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -5883,13 +5898,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
@@ -5900,13 +5915,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D68" s="2">
         <v>5</v>
@@ -5917,13 +5932,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -5934,13 +5949,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
@@ -5951,13 +5966,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
@@ -5968,13 +5983,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
@@ -5985,13 +6000,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
@@ -6002,13 +6017,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D74" s="2">
         <v>5</v>
@@ -6019,13 +6034,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
@@ -6036,13 +6051,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D76" s="2">
         <v>5</v>
@@ -6053,13 +6068,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D77" s="2">
         <v>5</v>
@@ -6070,13 +6085,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D78" s="2">
         <v>5</v>
@@ -6087,13 +6102,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D79" s="2">
         <v>5</v>
@@ -6104,13 +6119,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
@@ -6121,13 +6136,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D81" s="2">
         <v>5</v>
@@ -6138,13 +6153,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D82" s="2">
         <v>5</v>
@@ -6155,13 +6170,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D83" s="2">
         <v>5</v>
@@ -6172,13 +6187,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D84" s="2">
         <v>5</v>
@@ -6189,13 +6204,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D85" s="2">
         <v>5</v>
@@ -6206,13 +6221,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
@@ -6223,16 +6238,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -6240,13 +6255,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D88" s="2">
         <v>6</v>
@@ -6257,13 +6272,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D89" s="2">
         <v>6</v>
@@ -6274,13 +6289,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D90" s="2">
         <v>6</v>
@@ -6291,13 +6306,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D91" s="2">
         <v>6</v>
@@ -6308,13 +6323,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D92" s="2">
         <v>6</v>
@@ -6325,13 +6340,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D93" s="2">
         <v>6</v>
@@ -6342,13 +6357,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D94" s="2">
         <v>6</v>
@@ -6359,13 +6374,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D95" s="2">
         <v>6</v>
@@ -6376,13 +6391,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D96" s="2">
         <v>6</v>
@@ -6393,13 +6408,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D97" s="2">
         <v>6</v>
@@ -6410,13 +6425,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D98" s="2">
         <v>6</v>
@@ -6427,13 +6442,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D99" s="2">
         <v>6</v>
@@ -6444,13 +6459,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D100" s="2">
         <v>6</v>
@@ -6461,13 +6476,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D101" s="2">
         <v>6</v>
@@ -6478,13 +6493,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D102" s="2">
         <v>6</v>
@@ -6495,16 +6510,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D103" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -6512,13 +6527,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D104" s="2">
         <v>7</v>
@@ -6529,16 +6544,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D105" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -6546,13 +6561,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D106" s="2">
         <v>8</v>
@@ -6563,13 +6578,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D107" s="2">
         <v>8</v>
@@ -6580,13 +6595,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D108" s="2">
         <v>8</v>
@@ -6597,13 +6612,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D109" s="2">
         <v>8</v>
@@ -6614,13 +6629,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D110" s="2">
         <v>8</v>
@@ -6631,13 +6646,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D111" s="2">
         <v>8</v>
@@ -6648,13 +6663,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D112" s="2">
         <v>8</v>
@@ -6665,13 +6680,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D113" s="2">
         <v>8</v>
@@ -6682,13 +6697,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D114" s="2">
         <v>8</v>
@@ -6699,13 +6714,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D115" s="2">
         <v>8</v>
@@ -6716,13 +6731,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D116" s="2">
         <v>8</v>
@@ -6733,16 +6748,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D117" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -6750,13 +6765,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D118" s="2">
         <v>9</v>
@@ -6767,16 +6782,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D119" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -6784,13 +6799,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D120" s="2">
         <v>10</v>
@@ -6801,13 +6816,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D121" s="2">
         <v>10</v>
@@ -6818,13 +6833,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D122" s="2">
         <v>10</v>
@@ -6835,13 +6850,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D123" s="2">
         <v>10</v>
@@ -6852,13 +6867,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D124" s="2">
         <v>10</v>
@@ -6869,13 +6884,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D125" s="2">
         <v>10</v>
@@ -6886,13 +6901,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>114</v>
+        <v>391</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D126" s="2">
         <v>10</v>
@@ -6903,16 +6918,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D127" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -6920,13 +6935,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D128" s="2">
         <v>11</v>
@@ -6937,13 +6952,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D129" s="2">
         <v>11</v>
@@ -6954,13 +6969,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D130" s="2">
         <v>11</v>
@@ -6971,13 +6986,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D131" s="2">
         <v>11</v>
@@ -6988,13 +7003,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D132" s="2">
         <v>11</v>
@@ -7005,13 +7020,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D133" s="2">
         <v>11</v>
@@ -7022,13 +7037,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D134" s="2">
         <v>11</v>
@@ -7039,13 +7054,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D135" s="2">
         <v>11</v>
@@ -7056,13 +7071,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D136" s="2">
         <v>11</v>
@@ -7073,16 +7088,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D137" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -7090,13 +7105,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D138" s="2">
         <v>12</v>
@@ -7107,13 +7122,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D139" s="2">
         <v>12</v>
@@ -7124,13 +7139,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D140" s="2">
         <v>12</v>
@@ -7141,13 +7156,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D141" s="2">
         <v>12</v>
@@ -7158,13 +7173,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D142" s="2">
         <v>12</v>
@@ -7175,16 +7190,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D143" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -7192,13 +7207,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D144" s="2">
         <v>13</v>
@@ -7209,13 +7224,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D145" s="2">
         <v>13</v>
@@ -7226,13 +7241,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D146" s="2">
         <v>13</v>
@@ -7243,13 +7258,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D147" s="2">
         <v>13</v>
@@ -7260,13 +7275,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D148" s="2">
         <v>13</v>
@@ -7277,16 +7292,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D149" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -7294,13 +7309,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D150" s="2">
         <v>14</v>
@@ -7311,16 +7326,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D151" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" s="2">
         <v>0</v>
@@ -7328,13 +7343,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D152" s="2">
         <v>15</v>
@@ -7345,13 +7360,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D153" s="2">
         <v>15</v>
@@ -7362,13 +7377,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D154" s="2">
         <v>15</v>
@@ -7379,16 +7394,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D155" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
@@ -7396,16 +7411,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D156" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
@@ -7413,13 +7428,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D157" s="2">
         <v>17</v>
@@ -7430,13 +7445,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D158" s="2">
         <v>17</v>
@@ -7447,13 +7462,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D159" s="2">
         <v>17</v>
@@ -7464,13 +7479,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D160" s="2">
         <v>17</v>
@@ -7481,16 +7496,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D161" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -7498,13 +7513,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D162" s="2">
         <v>18</v>
@@ -7515,13 +7530,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D163" s="2">
         <v>18</v>
@@ -7532,13 +7547,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D164" s="2">
         <v>18</v>
@@ -7549,16 +7564,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D165" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -7566,13 +7581,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D166" s="2">
         <v>19</v>
@@ -7583,13 +7598,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D167" s="2">
         <v>19</v>
@@ -7600,13 +7615,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D168" s="2">
         <v>19</v>
@@ -7617,13 +7632,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D169" s="2">
         <v>19</v>
@@ -7634,13 +7649,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D170" s="2">
         <v>19</v>
@@ -7651,13 +7666,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D171" s="2">
         <v>19</v>
@@ -7668,13 +7683,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D172" s="2">
         <v>19</v>
@@ -7685,13 +7700,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D173" s="2">
         <v>19</v>
@@ -7702,13 +7717,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D174" s="2">
         <v>19</v>
@@ -7719,13 +7734,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D175" s="2">
         <v>19</v>
@@ -7736,13 +7751,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D176" s="2">
         <v>19</v>
@@ -7753,13 +7768,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D177" s="2">
         <v>19</v>
@@ -7770,13 +7785,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D178" s="2">
         <v>19</v>
@@ -7787,16 +7802,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D179" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -7804,13 +7819,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D180" s="2">
         <v>23</v>
@@ -7821,13 +7836,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D181" s="2">
         <v>23</v>
@@ -7838,13 +7853,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D182" s="2">
         <v>23</v>
@@ -7855,13 +7870,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D183" s="2">
         <v>23</v>
@@ -7872,13 +7887,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D184" s="2">
         <v>23</v>
@@ -7889,13 +7904,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D185" s="2">
         <v>23</v>
@@ -7906,13 +7921,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D186" s="2">
         <v>23</v>
@@ -7923,16 +7938,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D187" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E187" s="2">
         <v>0</v>
@@ -7940,13 +7955,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D188" s="2">
         <v>24</v>
@@ -7957,13 +7972,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D189" s="2">
         <v>24</v>
@@ -7974,13 +7989,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D190" s="2">
         <v>24</v>
@@ -7991,13 +8006,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D191" s="2">
         <v>24</v>
@@ -8008,13 +8023,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D192" s="2">
         <v>24</v>
@@ -8025,13 +8040,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D193" s="2">
         <v>24</v>
@@ -8042,13 +8057,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D194" s="2">
         <v>24</v>
@@ -8059,13 +8074,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D195" s="2">
         <v>24</v>
@@ -8076,16 +8091,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D196" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E196" s="2">
         <v>0</v>
@@ -8093,13 +8108,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D197" s="2">
         <v>25</v>
@@ -8110,13 +8125,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D198" s="2">
         <v>25</v>
@@ -8126,21 +8141,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
-        <v>198</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D199" s="2">
-        <v>25</v>
-      </c>
-      <c r="E199" s="2">
-        <v>0</v>
-      </c>
+      <c r="A199" s="6"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
@@ -9809,9 +9810,6 @@
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="6"/>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9820,10 +9818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2B8DA1-685F-45B3-8A6C-549E471D924C}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9837,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9845,10 +9843,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9856,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9867,10 +9865,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9878,10 +9876,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9889,10 +9887,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9900,10 +9898,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9911,10 +9909,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -9922,10 +9920,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -9933,10 +9931,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -9944,10 +9942,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -9955,10 +9953,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -9966,10 +9964,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -9977,10 +9975,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -9988,10 +9986,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -9999,10 +9997,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -10010,10 +10008,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -10021,10 +10019,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -10032,10 +10030,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -10043,10 +10041,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -10054,10 +10052,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -10065,10 +10063,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -10076,10 +10074,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -10087,10 +10085,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -10098,10 +10096,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -10109,10 +10107,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -10120,10 +10118,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -10131,10 +10129,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C28" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -10142,10 +10140,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -10153,10 +10151,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -10164,10 +10162,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -10175,10 +10173,32 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C32" t="s">
-        <v>460</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
